--- a/main_test_cases.xlsx
+++ b/main_test_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frolik/Documents/final-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DDC138F-BA90-3A4D-8586-64C171546A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6971CDF1-C9BA-F64E-BEFD-162915FEC67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2126,7 +2126,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2416,7 +2416,7 @@
       <c r="H14" s="23"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>5</v>
       </c>
